--- a/mbs-perturbation/nano/decisionTree/nano-decisionTree-results.xlsx
+++ b/mbs-perturbation/nano/decisionTree/nano-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8716121495327103</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9268292682926829</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9977643639615471</v>
+        <v>0.8914812805208899</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.95</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9268292682926829</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9913145539906103</v>
+        <v>0.9264032073310424</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.679245283018868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5685446009389672</v>
+        <v>0.9550040905372239</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.6829268292682926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6185446009389671</v>
+        <v>0.8948731933460594</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7370393374741202</v>
+        <v>0.8081550802139038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5609523809523809</v>
+        <v>0.5619883040935673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5910953436807095</v>
+        <v>0.581338851361861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8095560538725604</v>
+        <v>0.8493418280312536</v>
       </c>
     </row>
   </sheetData>
